--- a/02_coleta_temp/coleta_temp.xlsx
+++ b/02_coleta_temp/coleta_temp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,7 +454,7 @@
       <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve">Consulta Optantes
-Data da consulta: 29/04/2024 11:00:01
+Data da consulta: 29/04/2024 11:44:17
 Identificação do Contribuinte - CNPJ Matriz
 CNPJ: 33.657.248/0001-89
 A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
@@ -475,7 +475,7 @@
       <c r="B3" t="inlineStr">
         <is>
           <t xml:space="preserve">Consulta Optantes
-Data da consulta: 29/04/2024 11:00:07
+Data da consulta: 29/04/2024 11:44:23
 Identificação do Contribuinte - CNPJ Matriz
 CNPJ: 90.400.888/0001-42
 A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
@@ -496,11 +496,267 @@
       <c r="B4" t="inlineStr">
         <is>
           <t xml:space="preserve">Consulta Optantes
-Data da consulta: 29/04/2024 11:00:13
+Data da consulta: 29/04/2024 11:44:28
 Identificação do Contribuinte - CNPJ Matriz
 CNPJ: 60.746.948/0001-12
 A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
 Nome Empresarial: BANCO BRADESCO S.A.
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>00000000000191</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 29/04/2024 11:44:34
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 00.000.000/0001-91
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: BANCO DO BRASIL SA
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>00360305000104</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 29/04/2024 11:44:39
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 00.360.305/0001-04
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: CAIXA ECONOMICA FEDERAL
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>05775816000100</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 29/04/2024 11:44:45
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 05.775.816/0001-00
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: PELLIZZARO ASSESSORIA EMPRESARIAL DE NEGOCIOS DE EXPORTACAO E IMPORTACAO LTDA
+Situação Atual
+Situação no Simples Nacional: Optante pelo Simples Nacional desde 01/01/2020
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>00070112000542</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 29/04/2024 11:44:50
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 00.070.112/0014-33
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: ALL NATIONS COMERCIO EXTERIOR S.A.
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>00089189000130</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 29/04/2024 11:44:56
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 00.089.189/0001-30
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: LIVING CONSULTORIA E DESENVOLVIMENTO DE SISTEMAS LTDA
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>00097225000108</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 29/04/2024 11:45:01
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 00.097.225/0001-08
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: KYOCERA SOLAR DO BRASIL LTDA
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>00099708000575</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Logo Simples Nacional
+Simples Nacional
+Página inicial
+Logo Simples Nacional
+SERVIÇOS PÚBLICOS
+Consulta Optantes
+DASN SIMEI - Declaração Anual para o MEI
+PGMEI - Programa Gerador do DAS para o MEI
+SERVIÇOS COM CONTROLE DE ACESSO
+ENTES FEDERADOS
+NOTÍCIAS
+CONTEÚDO DE APOIO
+CANAIS DE ATENDIMENTO
+Todo o conteúdo deste site está publicado sob a licença Creative Commons Atribuição-SemDerivações 3.0 Não adaptada</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>00146461000258</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 29/04/2024 11:45:19
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 00.146.461/0001-77
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: DELTA AIR LINES INC
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>00147913000135</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 29/04/2024 11:45:25
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 00.147.913/0001-35
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: ASA ASSESSORIA DE COMERCIO EXTERIOR LTDA
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>00154642000145</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 29/04/2024 11:45:30
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 00.154.642/0001-45
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: TAO LANCHONETE LTDA
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>00154642000226</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 29/04/2024 11:45:36
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 00.154.642/0001-45
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: TAO LANCHONETE LTDA
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>00193082000138</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 29/04/2024 11:45:41
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 00.193.082/0001-38
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: M.PEIXOTO-CONSTRUCOES E SERVICOS LTDA
 Situação Atual
 Situação no Simples Nacional: NÃO optante pelo Simples Nacional
 Situação no SIMEI: NÃO enquadrado no SIMEI

--- a/02_coleta_temp/coleta_temp.xlsx
+++ b/02_coleta_temp/coleta_temp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,17 +448,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>33657248000189</t>
+          <t>00000000000191</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve">Consulta Optantes
-Data da consulta: 29/04/2024 11:44:17
+Data da consulta: 29/04/2024 16:10:12
 Identificação do Contribuinte - CNPJ Matriz
-CNPJ: 33.657.248/0001-89
+CNPJ: 00.000.000/0001-91
 A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
-Nome Empresarial: BANCO NACIONAL DE DESENVOLVIMENTO ECONOMICO E SOCIAL
+Nome Empresarial: BANCO DO BRASIL SA
 Situação Atual
 Situação no Simples Nacional: NÃO optante pelo Simples Nacional
 Situação no SIMEI: NÃO enquadrado no SIMEI
@@ -469,13 +469,76 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>00038166000873</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 29/04/2024 16:10:21
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 00.038.166/0001-05
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: BANCO CENTRAL DO BRASIL
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>60701190000104</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 29/04/2024 16:10:24
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 60.701.190/0001-04
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: ITAU UNIBANCO S.A.
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>60746948000112</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 29/04/2024 16:10:28
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 60.746.948/0001-12
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: BANCO BRADESCO S.A.
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>90400888000142</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t xml:space="preserve">Consulta Optantes
-Data da consulta: 29/04/2024 11:44:23
+Data da consulta: 29/04/2024 16:10:31
 Identificação do Contribuinte - CNPJ Matriz
 CNPJ: 90.400.888/0001-42
 A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
@@ -487,283 +550,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>60746948000112</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Consulta Optantes
-Data da consulta: 29/04/2024 11:44:28
-Identificação do Contribuinte - CNPJ Matriz
-CNPJ: 60.746.948/0001-12
-A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
-Nome Empresarial: BANCO BRADESCO S.A.
-Situação Atual
-Situação no Simples Nacional: NÃO optante pelo Simples Nacional
-Situação no SIMEI: NÃO enquadrado no SIMEI
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>00000000000191</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Consulta Optantes
-Data da consulta: 29/04/2024 11:44:34
-Identificação do Contribuinte - CNPJ Matriz
-CNPJ: 00.000.000/0001-91
-A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
-Nome Empresarial: BANCO DO BRASIL SA
-Situação Atual
-Situação no Simples Nacional: NÃO optante pelo Simples Nacional
-Situação no SIMEI: NÃO enquadrado no SIMEI
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>00360305000104</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Consulta Optantes
-Data da consulta: 29/04/2024 11:44:39
-Identificação do Contribuinte - CNPJ Matriz
-CNPJ: 00.360.305/0001-04
-A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
-Nome Empresarial: CAIXA ECONOMICA FEDERAL
-Situação Atual
-Situação no Simples Nacional: NÃO optante pelo Simples Nacional
-Situação no SIMEI: NÃO enquadrado no SIMEI
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>05775816000100</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Consulta Optantes
-Data da consulta: 29/04/2024 11:44:45
-Identificação do Contribuinte - CNPJ Matriz
-CNPJ: 05.775.816/0001-00
-A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
-Nome Empresarial: PELLIZZARO ASSESSORIA EMPRESARIAL DE NEGOCIOS DE EXPORTACAO E IMPORTACAO LTDA
-Situação Atual
-Situação no Simples Nacional: Optante pelo Simples Nacional desde 01/01/2020
-Situação no SIMEI: NÃO enquadrado no SIMEI
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>00070112000542</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Consulta Optantes
-Data da consulta: 29/04/2024 11:44:50
-Identificação do Contribuinte - CNPJ Matriz
-CNPJ: 00.070.112/0014-33
-A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
-Nome Empresarial: ALL NATIONS COMERCIO EXTERIOR S.A.
-Situação Atual
-Situação no Simples Nacional: NÃO optante pelo Simples Nacional
-Situação no SIMEI: NÃO enquadrado no SIMEI
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>00089189000130</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Consulta Optantes
-Data da consulta: 29/04/2024 11:44:56
-Identificação do Contribuinte - CNPJ Matriz
-CNPJ: 00.089.189/0001-30
-A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
-Nome Empresarial: LIVING CONSULTORIA E DESENVOLVIMENTO DE SISTEMAS LTDA
-Situação Atual
-Situação no Simples Nacional: NÃO optante pelo Simples Nacional
-Situação no SIMEI: NÃO enquadrado no SIMEI
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>00097225000108</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Consulta Optantes
-Data da consulta: 29/04/2024 11:45:01
-Identificação do Contribuinte - CNPJ Matriz
-CNPJ: 00.097.225/0001-08
-A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
-Nome Empresarial: KYOCERA SOLAR DO BRASIL LTDA
-Situação Atual
-Situação no Simples Nacional: NÃO optante pelo Simples Nacional
-Situação no SIMEI: NÃO enquadrado no SIMEI
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>00099708000575</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Logo Simples Nacional
-Simples Nacional
-Página inicial
-Logo Simples Nacional
-SERVIÇOS PÚBLICOS
-Consulta Optantes
-DASN SIMEI - Declaração Anual para o MEI
-PGMEI - Programa Gerador do DAS para o MEI
-SERVIÇOS COM CONTROLE DE ACESSO
-ENTES FEDERADOS
-NOTÍCIAS
-CONTEÚDO DE APOIO
-CANAIS DE ATENDIMENTO
-Todo o conteúdo deste site está publicado sob a licença Creative Commons Atribuição-SemDerivações 3.0 Não adaptada</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>00146461000258</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Consulta Optantes
-Data da consulta: 29/04/2024 11:45:19
-Identificação do Contribuinte - CNPJ Matriz
-CNPJ: 00.146.461/0001-77
-A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
-Nome Empresarial: DELTA AIR LINES INC
-Situação Atual
-Situação no Simples Nacional: NÃO optante pelo Simples Nacional
-Situação no SIMEI: NÃO enquadrado no SIMEI
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>00147913000135</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Consulta Optantes
-Data da consulta: 29/04/2024 11:45:25
-Identificação do Contribuinte - CNPJ Matriz
-CNPJ: 00.147.913/0001-35
-A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
-Nome Empresarial: ASA ASSESSORIA DE COMERCIO EXTERIOR LTDA
-Situação Atual
-Situação no Simples Nacional: NÃO optante pelo Simples Nacional
-Situação no SIMEI: NÃO enquadrado no SIMEI
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>00154642000145</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Consulta Optantes
-Data da consulta: 29/04/2024 11:45:30
-Identificação do Contribuinte - CNPJ Matriz
-CNPJ: 00.154.642/0001-45
-A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
-Nome Empresarial: TAO LANCHONETE LTDA
-Situação Atual
-Situação no Simples Nacional: NÃO optante pelo Simples Nacional
-Situação no SIMEI: NÃO enquadrado no SIMEI
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>00154642000226</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Consulta Optantes
-Data da consulta: 29/04/2024 11:45:36
-Identificação do Contribuinte - CNPJ Matriz
-CNPJ: 00.154.642/0001-45
-A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
-Nome Empresarial: TAO LANCHONETE LTDA
-Situação Atual
-Situação no Simples Nacional: NÃO optante pelo Simples Nacional
-Situação no SIMEI: NÃO enquadrado no SIMEI
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>00193082000138</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Consulta Optantes
-Data da consulta: 29/04/2024 11:45:41
-Identificação do Contribuinte - CNPJ Matriz
-CNPJ: 00.193.082/0001-38
-A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
-Nome Empresarial: M.PEIXOTO-CONSTRUCOES E SERVICOS LTDA
-Situação Atual
-Situação no Simples Nacional: NÃO optante pelo Simples Nacional
-Situação no SIMEI: NÃO enquadrado no SIMEI
-</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/02_coleta_temp/coleta_temp.xlsx
+++ b/02_coleta_temp/coleta_temp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,17 +448,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>00000000000191</t>
+          <t>33657248000189</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve">Consulta Optantes
-Data da consulta: 29/04/2024 16:10:12
+Data da consulta: 30/04/2024 11:12:18
 Identificação do Contribuinte - CNPJ Matriz
-CNPJ: 00.000.000/0001-91
+CNPJ: 33.657.248/0001-89
 A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
-Nome Empresarial: BANCO DO BRASIL SA
+Nome Empresarial: BANCO NACIONAL DE DESENVOLVIMENTO ECONOMICO E SOCIAL
 Situação Atual
 Situação no Simples Nacional: NÃO optante pelo Simples Nacional
 Situação no SIMEI: NÃO enquadrado no SIMEI
@@ -469,76 +469,13 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>00038166000873</t>
+          <t>90400888000142</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
           <t xml:space="preserve">Consulta Optantes
-Data da consulta: 29/04/2024 16:10:21
-Identificação do Contribuinte - CNPJ Matriz
-CNPJ: 00.038.166/0001-05
-A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
-Nome Empresarial: BANCO CENTRAL DO BRASIL
-Situação Atual
-Situação no Simples Nacional: NÃO optante pelo Simples Nacional
-Situação no SIMEI: NÃO enquadrado no SIMEI
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>60701190000104</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Consulta Optantes
-Data da consulta: 29/04/2024 16:10:24
-Identificação do Contribuinte - CNPJ Matriz
-CNPJ: 60.701.190/0001-04
-A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
-Nome Empresarial: ITAU UNIBANCO S.A.
-Situação Atual
-Situação no Simples Nacional: NÃO optante pelo Simples Nacional
-Situação no SIMEI: NÃO enquadrado no SIMEI
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>60746948000112</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Consulta Optantes
-Data da consulta: 29/04/2024 16:10:28
-Identificação do Contribuinte - CNPJ Matriz
-CNPJ: 60.746.948/0001-12
-A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
-Nome Empresarial: BANCO BRADESCO S.A.
-Situação Atual
-Situação no Simples Nacional: NÃO optante pelo Simples Nacional
-Situação no SIMEI: NÃO enquadrado no SIMEI
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>90400888000142</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Consulta Optantes
-Data da consulta: 29/04/2024 16:10:31
+Data da consulta: 30/04/2024 11:12:22
 Identificação do Contribuinte - CNPJ Matriz
 CNPJ: 90.400.888/0001-42
 A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa

--- a/02_coleta_temp/coleta_temp.xlsx
+++ b/02_coleta_temp/coleta_temp.xlsx
@@ -454,7 +454,7 @@
       <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve">Consulta Optantes
-Data da consulta: 30/04/2024 11:12:18
+Data da consulta: 30/04/2024 11:19:18
 Identificação do Contribuinte - CNPJ Matriz
 CNPJ: 33.657.248/0001-89
 A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
@@ -475,7 +475,7 @@
       <c r="B3" t="inlineStr">
         <is>
           <t xml:space="preserve">Consulta Optantes
-Data da consulta: 30/04/2024 11:12:22
+Data da consulta: 30/04/2024 11:19:22
 Identificação do Contribuinte - CNPJ Matriz
 CNPJ: 90.400.888/0001-42
 A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa

--- a/02_coleta_temp/coleta_temp.xlsx
+++ b/02_coleta_temp/coleta_temp.xlsx
@@ -454,7 +454,7 @@
       <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve">Consulta Optantes
-Data da consulta: 30/04/2024 11:19:18
+Data da consulta: 13/05/2024 15:57:51
 Identificação do Contribuinte - CNPJ Matriz
 CNPJ: 33.657.248/0001-89
 A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
@@ -475,7 +475,7 @@
       <c r="B3" t="inlineStr">
         <is>
           <t xml:space="preserve">Consulta Optantes
-Data da consulta: 30/04/2024 11:19:22
+Data da consulta: 13/05/2024 15:57:56
 Identificação do Contribuinte - CNPJ Matriz
 CNPJ: 90.400.888/0001-42
 A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa

--- a/02_coleta_temp/coleta_temp.xlsx
+++ b/02_coleta_temp/coleta_temp.xlsx
@@ -454,7 +454,7 @@
       <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve">Consulta Optantes
-Data da consulta: 13/05/2024 15:57:51
+Data da consulta: 13/05/2024 17:15:13
 Identificação do Contribuinte - CNPJ Matriz
 CNPJ: 33.657.248/0001-89
 A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
@@ -475,7 +475,7 @@
       <c r="B3" t="inlineStr">
         <is>
           <t xml:space="preserve">Consulta Optantes
-Data da consulta: 13/05/2024 15:57:56
+Data da consulta: 13/05/2024 17:15:18
 Identificação do Contribuinte - CNPJ Matriz
 CNPJ: 90.400.888/0001-42
 A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa

--- a/02_coleta_temp/coleta_temp.xlsx
+++ b/02_coleta_temp/coleta_temp.xlsx
@@ -454,7 +454,7 @@
       <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve">Consulta Optantes
-Data da consulta: 13/05/2024 17:15:13
+Data da consulta: 13/05/2024 17:23:33
 Identificação do Contribuinte - CNPJ Matriz
 CNPJ: 33.657.248/0001-89
 A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
@@ -475,7 +475,7 @@
       <c r="B3" t="inlineStr">
         <is>
           <t xml:space="preserve">Consulta Optantes
-Data da consulta: 13/05/2024 17:15:18
+Data da consulta: 13/05/2024 17:23:38
 Identificação do Contribuinte - CNPJ Matriz
 CNPJ: 90.400.888/0001-42
 A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa

--- a/02_coleta_temp/coleta_temp.xlsx
+++ b/02_coleta_temp/coleta_temp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,7 +454,7 @@
       <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve">Consulta Optantes
-Data da consulta: 13/05/2024 17:23:33
+Data da consulta: 17/06/2024 17:27:32
 Identificação do Contribuinte - CNPJ Matriz
 CNPJ: 33.657.248/0001-89
 A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
@@ -469,23 +469,52 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>90400888000142</t>
+          <t>90400888000000</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
           <t xml:space="preserve">Consulta Optantes
-Data da consulta: 13/05/2024 17:23:38
+Data da consulta: 00/00/0000 00:00:00
 Identificação do Contribuinte - CNPJ Matriz
-CNPJ: 90.400.888/0001-42
+CNPJ: 90400888000000
 A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
-Nome Empresarial: BANCO SANTANDER (BRASIL) S.A.
+Nome Empresarial: &lt;cnpj_invalido&gt;
+Situação Atual
+Situação no Simples Nacional: &lt;cnpj_invalido&gt;
+Situação no SIMEI: &lt;cnpj_invalido&gt;
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>60746948000112</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta Optantes
+Data da consulta: 17/06/2024 17:27:45
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 60.746.948/0001-12
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: BANCO BRADESCO S.A.
 Situação Atual
 Situação no Simples Nacional: NÃO optante pelo Simples Nacional
 Situação no SIMEI: NÃO enquadrado no SIMEI
 </t>
         </is>
       </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>00000000000191</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/02_coleta_temp/coleta_temp.xlsx
+++ b/02_coleta_temp/coleta_temp.xlsx
@@ -1,37 +1,84 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikaelfideles\Documents\RG1NOT0340\myprojects\consulta_cnpj\02_coleta_temp\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758934B5-2B8C-48D4-B307-1DA5AF2DA8A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>NUM_CNPJ</t>
+  </si>
+  <si>
+    <t>COLETA</t>
+  </si>
+  <si>
+    <t>33657248000189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consulta Optantes
+Data da consulta: 17/09/2024 15:49:08
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 33.657.248/0001-89
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: BANCO NACIONAL DE DESENVOLVIMENTO ECONOMICO E SOCIAL
+Situação Atual
+Situação no Simples Nacional: NÃO optante pelo Simples Nacional
+Situação no SIMEI: NÃO enquadrado no SIMEI
+</t>
+  </si>
+  <si>
+    <t>90400888000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consulta Optantes
+Data da consulta: 00/00/0000 00:00:00
+Identificação do Contribuinte - CNPJ Matriz
+CNPJ: 90400888000000
+A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
+Nome Empresarial: &lt;cnpj_invalido&gt;
+Situação Atual
+Situação no Simples Nacional: &lt;cnpj_invalido&gt;
+Situação no SIMEI: &lt;cnpj_invalido&gt;
+</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +93,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,101 +417,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_CNPJ</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>COLETA</t>
-        </is>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>33657248000189</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Consulta Optantes
-Data da consulta: 17/06/2024 17:27:32
-Identificação do Contribuinte - CNPJ Matriz
-CNPJ: 33.657.248/0001-89
-A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
-Nome Empresarial: BANCO NACIONAL DE DESENVOLVIMENTO ECONOMICO E SOCIAL
-Situação Atual
-Situação no Simples Nacional: NÃO optante pelo Simples Nacional
-Situação no SIMEI: NÃO enquadrado no SIMEI
-</t>
-        </is>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>90400888000000</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Consulta Optantes
-Data da consulta: 00/00/0000 00:00:00
-Identificação do Contribuinte - CNPJ Matriz
-CNPJ: 90400888000000
-A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
-Nome Empresarial: &lt;cnpj_invalido&gt;
-Situação Atual
-Situação no Simples Nacional: &lt;cnpj_invalido&gt;
-Situação no SIMEI: &lt;cnpj_invalido&gt;
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>60746948000112</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Consulta Optantes
-Data da consulta: 17/06/2024 17:27:45
-Identificação do Contribuinte - CNPJ Matriz
-CNPJ: 60.746.948/0001-12
-A opção pelo Simples Nacional e/ou SIMEI abrange todos os estabelecimentos da empresa
-Nome Empresarial: BANCO BRADESCO S.A.
-Situação Atual
-Situação no Simples Nacional: NÃO optante pelo Simples Nacional
-Situação no SIMEI: NÃO enquadrado no SIMEI
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>00000000000191</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
